--- a/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
@@ -167,6 +167,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/German_Tales/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1594D05-B552-4707-86AC-386BDD1EB18A}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F65B5E-60E7-4FF8-912E-7BB354CC1285}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -80,13 +80,40 @@
   </si>
   <si>
     <t>Kommentar_Lvl2</t>
+  </si>
+  <si>
+    <t>Mundart des Kuhländchens zwischen Oderau und Engelswald in Mähren.</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Kuhländchen</t>
+  </si>
+  <si>
+    <t>ungenau</t>
+  </si>
+  <si>
+    <t>49.6724534</t>
+  </si>
+  <si>
+    <t>17.9518972</t>
+  </si>
+  <si>
+    <t>Das unverdiente Kränzlein.</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>nach ID 743 einfügen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,24 +123,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,19 +179,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,14 +487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="51.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="15"/>
     <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="15" width="28.7109375" customWidth="1"/>
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
@@ -483,7 +538,7 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -512,22 +567,56 @@
       </c>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+    <row r="2" spans="1:21" s="8" customFormat="1">
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9">
+        <v>364</v>
+      </c>
+      <c r="E2" s="9">
+        <v>364</v>
+      </c>
+      <c r="F2" s="9">
+        <v>376</v>
+      </c>
+      <c r="G2" s="9">
+        <v>376</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="3"/>
@@ -540,7 +629,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
@@ -557,7 +646,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="6"/>
@@ -574,7 +663,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="6"/>
@@ -591,7 +680,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="6"/>
@@ -608,7 +697,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="6"/>
@@ -625,7 +714,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="6"/>
@@ -642,7 +731,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="6"/>
@@ -659,7 +748,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="6"/>
@@ -676,7 +765,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="6"/>
@@ -693,7 +782,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="6"/>
@@ -707,7 +796,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="6"/>
@@ -721,7 +810,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="6"/>
@@ -735,7 +824,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="6"/>
@@ -749,7 +838,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
@@ -763,7 +852,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="6"/>
@@ -775,7 +864,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="7"/>

--- a/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/German_Tales/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F65B5E-60E7-4FF8-912E-7BB354CC1285}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6638DD8E-9FBF-41E4-9DF8-0137E06C4A37}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,51 @@
   </si>
   <si>
     <t>nach ID 743 einfügen</t>
+  </si>
+  <si>
+    <t>Mundart von Fürth.</t>
+  </si>
+  <si>
+    <t>Fürth</t>
+  </si>
+  <si>
+    <t>49.4766218</t>
+  </si>
+  <si>
+    <t>10.9869080</t>
+  </si>
+  <si>
+    <t>Das unverhoffte Glück.</t>
+  </si>
+  <si>
+    <t>nach ID 790 einfügen</t>
+  </si>
+  <si>
+    <t>Mundart von Saal im Landgericht Königshofen in Franken.</t>
+  </si>
+  <si>
+    <t>Saal</t>
+  </si>
+  <si>
+    <t>[Region/Gebiet]</t>
+  </si>
+  <si>
+    <t>50.3191076</t>
+  </si>
+  <si>
+    <t>510.3725139</t>
+  </si>
+  <si>
+    <t>Rochberlich Gakoäs zun Fenser raus.</t>
+  </si>
+  <si>
+    <t>HW,Buch</t>
+  </si>
+  <si>
+    <t>Koords eines Punktes zwischen Saal an der Saale und Waltershausen, der in etwa der Mittelpunkts des Markts Saal an der Saale ist. Es ist unklar, od die Stadt Saal oder die Gemeinde gemeint ist.</t>
+  </si>
+  <si>
+    <t>[?] Gespräch zum Fenster raus.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,12 +237,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -206,6 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,14 +532,14 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="51.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="15"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
     <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="15" width="28.7109375" customWidth="1"/>
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
@@ -538,7 +582,7 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -567,90 +611,150 @@
       </c>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1">
-      <c r="B2" s="9">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>364</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>364</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>376</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>376</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="13" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+    <row r="3" spans="1:21" s="15" customFormat="1">
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15">
+        <v>398</v>
+      </c>
+      <c r="E3" s="15">
+        <v>398</v>
+      </c>
+      <c r="F3" s="15">
+        <v>405</v>
+      </c>
+      <c r="G3" s="15">
+        <v>405</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="15" customFormat="1">
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="15">
+        <v>407</v>
+      </c>
+      <c r="E4" s="15">
+        <v>407</v>
+      </c>
+      <c r="F4" s="15">
+        <v>419</v>
+      </c>
+      <c r="G4" s="15">
+        <v>419</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="3"/>
@@ -663,7 +767,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="6"/>
@@ -680,7 +784,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="6"/>
@@ -697,7 +801,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="6"/>
@@ -714,7 +818,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="6"/>
@@ -731,7 +835,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="6"/>
@@ -748,7 +852,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="6"/>
@@ -765,7 +869,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="6"/>
@@ -782,7 +886,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="6"/>
@@ -796,7 +900,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="6"/>
@@ -810,7 +914,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="6"/>
@@ -824,7 +928,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="6"/>
@@ -838,7 +942,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="6"/>
@@ -852,7 +956,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="6"/>
@@ -864,7 +968,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="7"/>
